--- a/Business case/Business Case.xlsx
+++ b/Business case/Business Case.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Doctoralia\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e9c4b8569225e56c/Analisis-Ciencia de datos/Pruebas/Doctoralia_BusinessCase/Business case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FC7E98-FBE4-429B-AF42-0EF8EA07490D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="158" documentId="13_ncr:1_{F6FC7E98-FBE4-429B-AF42-0EF8EA07490D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAFD6D11-F587-4241-ACB6-47C2180BB440}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E97A956E-E47D-4353-A55B-0A4508C755E5}"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16260" activeTab="2" xr2:uid="{E97A956E-E47D-4353-A55B-0A4508C755E5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Máx Utilidades" sheetId="1" r:id="rId1"/>
-    <sheet name="SQL Prueba" sheetId="4" r:id="rId2"/>
-    <sheet name="SQL tablas" sheetId="3" r:id="rId3"/>
+    <sheet name="Ejercicio" sheetId="5" r:id="rId1"/>
+    <sheet name="Máx Utilidades" sheetId="1" r:id="rId2"/>
+    <sheet name="SQL Prueba" sheetId="4" r:id="rId3"/>
+    <sheet name="SQL tablas" sheetId="3" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SQL Prueba'!$B$3:$H$48</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'SQL tablas'!$L$4:$R$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'SQL Prueba'!$B$3:$H$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'SQL tablas'!$L$4:$R$54</definedName>
     <definedName name="NewProfilesMX">[1]DATA!$A:$E</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="136">
   <si>
     <t>PRODUCT</t>
   </si>
@@ -377,6 +378,209 @@
   </si>
   <si>
     <t>Seleccione la tabla INVOICE agregando el indicador "price_type" que informe si el precio por producto fue "STANDARD" o "PROMO";</t>
+  </si>
+  <si>
+    <t>Si no se cuenta con la versiòn Desktop de Tableau, puede bajar Tableau Public en la siguiente liga.</t>
+  </si>
+  <si>
+    <t>https://public.tableau.com/en-us/s/download</t>
+  </si>
+  <si>
+    <t>Dadas las tablas que se encuentran en la pestaña "SQL Tablas", ejecute las siguientes consultas en SQL.
+Indique las queries en el espacio amarillo.
+Alternativamente puede utilizar el archivo "Business Case SQL" para correr las queries directamente en MySQL y devolver el file SQL con las respuestas.</t>
+  </si>
+  <si>
+    <t>SELECT 
+    category,
+    product,
+    total_spend
+FROM (
+    SELECT 
+        category,
+        product,
+        SUM(spend) AS total_spend,
+        ROW_NUMBER() OVER (PARTITION BY category ORDER BY SUM(spend) DESC) AS ranking
+    FROM producto_spend
+    WHERE EXTRACT(YEAR FROM transaction_date) = 2022
+    GROUP BY category, product
+) sub
+WHERE ranking &lt;= 2;</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>from scipy.optimize import linprog
+# Coeficientes de la función objetivo (negativos porque linprog minimiza)
+c = [-2000, -1000]
+# Coeficientes de las restricciones
+A = [
+    [60, 60],      # trabajo manual
+    [180, 30]      # trabajo máquina
+]
+b = [30000, 48000]
+# Restricciones de no negatividad
+x_bounds = (0, None)
+res = linprog(c, A_ub=A, b_ub=b, bounds=[x_bounds, x_bounds], method='highs')
+# Resultados
+x1, x2 = res.x
+beneficio_max = -res.fun
+print(f"Fabricar {x1:.0f} coches modelo C1")
+print(f"Fabricar {x2:.0f} coches modelo C2")
+print(f"Beneficio máximo: {beneficio_max:.2f} euros")</t>
+  </si>
+  <si>
+    <t>Script para la resolución</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Este caso es un problema de optimización lineal, donde el objetivo es maximizar el beneficio total por la producción de dos modelos de coche (C1 y C2).
+Las restricciones están dadas por la disponibilidad mensual de trabajo manual (30,000 minutos) y de trabajo de máquina (48,000 minutos).
+El modelo se resuelve en Python utilizando la librería scipy.optimize.
+Resultados: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fabricar 220 coches modelo C1
+Fabricar 280 coches modelo C2
+Beneficio máximo: 720,000 euros</t>
+    </r>
+  </si>
+  <si>
+    <t>import numpy as np
+import matplotlib.pyplot as plt
+# Crear variables para el número de coches C1 y C2
+x1 = np.linspace(0, 400, 500)
+x2 = np.linspace(0, 400, 500)
+# Restricciones
+# 60x1 + 60x2 &lt;= 30000 (trabajo manual en minutos)
+# 180x1 + 30x2 &lt;= 48000 (trabajo de máquina en minutos)
+# Despejar x2 en función de x1 para graficar las restricciones
+x2_manual = (30000 - 60 * x1) / 60
+x2_maquina = (48000 - 180 * x1) / 30
+# Crear gráfico
+plt.figure(figsize=(10, 6))
+# Graficar restricciones
+plt.plot(x1, x2_manual, label='Trabajo manual: 60x1 + 60x2 ≤ 30000', color='blue')
+plt.plot(x1, x2_maquina, label='Trabajo máquina: 180x1 + 30x2 ≤ 48000', color='green')
+# Rellenar la región factible
+x1_grid, x2_grid = np.meshgrid(x1, x2)
+cond1 = 60 * x1_grid + 60 * x2_grid &lt;= 30000
+cond2 = 180 * x1_grid + 30 * x2_grid &lt;= 48000
+region_factible = cond1 &amp; cond2
+plt.contourf(x1, x2, region_factible, levels=[0.5, 1], colors=['#d0f0d0'], alpha=0.5)
+# Graficar línea de nivel de beneficio máximo
+Z = 2000 * x1_grid + 1000 * x2_grid
+CS = plt.contour(x1, x2, Z, levels=[720000], colors='red', linestyles='dashed')
+plt.clabel(CS, inline=1, fontsize=10)
+# Punto óptimo
+plt.plot(220, 280, 'ro', label='Solución óptima (220, 280)')
+# Detalles del gráfico
+plt.xlim(0, 400)
+plt.ylim(0, 400)
+plt.xlabel('Coches modelo C1')
+plt.ylabel('Coches modelo C2')
+plt.title('Región factible y solución óptima del problema de optimización')
+plt.legend()
+plt.grid(True)
+plt.tight_layout()
+plt.show()</t>
+  </si>
+  <si>
+    <t>Script para la creación del gráfico</t>
+  </si>
+  <si>
+    <t>SELECT * FROM PRODUCT;</t>
+  </si>
+  <si>
+    <t>SELECT *
+FROM BUSINESS_CASE.INVOICES
+WHERE inv_date = '2021-12-01';</t>
+  </si>
+  <si>
+    <t>SELECT *
+FROM BUSINESS_CASE.CLIENTS
+WHERE country = 'Mexico';</t>
+  </si>
+  <si>
+    <t>SELECT *
+FROM BUSINESS_CASE.INVOICES
+WHERE invoice_id = 25;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(DISTINCT product_id) AS productos_diferentes
+FROM BUSINESS_CASE.PRICE
+WHERE country = 'Colombia';</t>
+  </si>
+  <si>
+    <t>SELECT *
+FROM BUSINESS_CASE.CLIENTS
+WHERE city = 'Cartagena';</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS total_clientes_guadalajara
+FROM BUSINESS_CASE.CLIENTS
+WHERE city = 'Guadalajara';</t>
+  </si>
+  <si>
+    <t>SELECT SUM(amount_eur) AS total_facturado_mexico_dic2021
+FROM BUSINESS_CASE.INVOICES
+WHERE country_code = 30
+    AND inv_date BETWEEN '2021-12-01' AND '2021-12-31';</t>
+  </si>
+  <si>
+    <t>SELECT SUM(i.quantity) AS total_producto_1_colombia
+FROM BUSINESS_CASE.INVOICES i
+JOIN BUSINESS_CASE.PRODUCT p ON i.product_id = p.product_id
+WHERE p.product_name = 'producto_1'
+    AND i.country_code = 10
+    AND i.inv_date BETWEEN '2021-12-01' AND '2021-12-15';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT COUNT(DISTINCT i.invoice_id) AS compras_cliente_C10_mexico
+FROM BUSINESS_CASE.INVOICES i
+WHERE i.client_id = 'C10'
+    AND i.country_code = 30;	</t>
+  </si>
+  <si>
+    <t>SELECT SUM(i.amount_eur) AS total_gastado
+FROM BUSINESS_CASE.INVOICES i
+JOIN BUSINESS_CASE.PRODUCT p ON i.product_id = p.product_id
+WHERE i.client_id = 'C17'
+    AND p.product_name = 'producto_6'
+    AND MONTH(i.inv_date) = 12
+    AND YEAR(i.inv_date) = 2021;</t>
+  </si>
+  <si>
+    <t>SELECT pr.country, SUM(i.amount_eur) AS total_facturado
+FROM BUSINESS_CASE.INVOICES i
+JOIN BUSINESS_CASE.PRICE pr ON i.country_code = pr.country_code
+WHERE MONTH(i.inv_date) = 12 AND YEAR(i.inv_date) = 2021
+GROUP BY pr.country;</t>
+  </si>
+  <si>
+    <t>SELECT 
+    i.*,
+    CASE 
+        WHEN i.amount_eur / i.quantity = pr.price_standard THEN 'STANDARD'
+        WHEN i.amount_eur / i.quantity = pr.price_promo THEN 'PROMO'
+        ELSE 'UNKNOWN'
+    END AS price_type
+FROM BUSINESS_CASE.INVOICES i
+JOIN BUSINESS_CASE.PRICE pr ON i.product_id = pr.product_id
+    AND i.country_code = pr.country_code;</t>
+  </si>
+  <si>
+    <t>Ejercicios trabajados directamente en MySQL:</t>
   </si>
   <si>
     <r>
@@ -402,19 +606,22 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
- ¿Cuales conclusiones puede observar y cuales recomendaciones tendrìa?</t>
+ ¿Cuales conclusiones puede observar y cuales recomendaciones tendrìa?
+</t>
     </r>
-  </si>
-  <si>
-    <t>Si no se cuenta con la versiòn Desktop de Tableau, puede bajar Tableau Public en la siguiente liga.</t>
-  </si>
-  <si>
-    <t>https://public.tableau.com/en-us/s/download</t>
-  </si>
-  <si>
-    <t>Dadas las tablas que se encuentran en la pestaña "SQL Tablas", ejecute las siguientes consultas en SQL.
-Indique las queries en el espacio amarillo.
-Alternativamente puede utilizar el archivo "Business Case SQL" para correr las queries directamente en MySQL y devolver el file SQL con las respuestas.</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>México representa el mayor volumen de ventas, especialmente en productos promocionales.
+* Producto 5 y Producto 4 son los más vendidos en valor, recomendando mantener promociones sobre estos.
+* Clientes recurrentes como C4 y C10 muestran altos montos de compra, son ideales para estrategias de fidelización.
+* Cartagena y Bogotá tienen un menor volumen: posible foco para campañas regionales.
+* Las promociones tienen alto impacto en ventas, se recomienda evaluar márgenes y continuar su implementación estratégica.
+* Ventas tienden a incrementarse hacia fin de mes, útil para planificar promociones y stock.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -424,7 +631,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$-80A]#,##0.00"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,6 +714,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -533,7 +774,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -589,6 +830,138 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -600,7 +973,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -608,8 +981,146 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="7" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -649,8 +1160,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="20% - Énfasis1" xfId="5" builtinId="30"/>
-    <cellStyle name="Hipervínculo" xfId="7" builtinId="8"/>
+    <cellStyle name="20% - Accent1" xfId="5" builtinId="30"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="6" xr:uid="{4DBE8742-8142-45F6-AF40-D78337A3F873}"/>
@@ -669,6 +1180,197 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5041900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>148139</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F618057-7069-178A-A8E5-83A47F72F001}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="558800"/>
+          <a:ext cx="7772400" cy="1684839"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5E9BA3A-8D2D-8150-0A29-968608979654}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10299700" y="254000"/>
+          <a:ext cx="6489700" cy="6337300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1215675E-56B0-6FE3-A8CA-66CC7A2B62FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11137900" y="4279900"/>
+          <a:ext cx="6286500" cy="3746500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>251610</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{774802B1-343D-70DD-246A-683C7E44AC11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15836900" y="1752600"/>
+          <a:ext cx="7772400" cy="4290210"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1621,8 +2323,12 @@
 </externalLink>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -1917,137 +2623,1007 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2655F295-090F-4C33-9729-8C4920D40E1F}">
-  <dimension ref="A1:M4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E662BBFD-FD10-134A-A343-516ACAC08831}">
+  <dimension ref="E15:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M4"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1" customWidth="1"/>
+    <col min="2" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="83.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-    </row>
-    <row r="2" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-    </row>
-    <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+    <row r="15" spans="5:5" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="5:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" ht="241" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:M4"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7378FA07-1D1B-4490-B946-07A7C2E9F0DF}">
-  <dimension ref="A1:H53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2655F295-090F-4C33-9729-8C4920D40E1F}">
+  <dimension ref="B1:T83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="117.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:14" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="20"/>
+    </row>
+    <row r="3" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="23"/>
+    </row>
+    <row r="4" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="23"/>
+    </row>
+    <row r="5" spans="2:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="26"/>
+    </row>
+    <row r="6" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="29"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="32"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="32"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="32"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="32"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="32"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="32"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C14" s="30"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="32"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="32"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="32"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="32"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="32"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="32"/>
+    </row>
+    <row r="20" spans="3:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="35"/>
+    </row>
+    <row r="21" spans="3:14" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="3:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="47"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D23" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="38"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D24" s="39"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="41"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="41"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D26" s="39"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="41"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D27" s="39"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="41"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D28" s="39"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="41"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D29" s="39"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="41"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D30" s="39"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="41"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D31" s="39"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="41"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D32" s="39"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="41"/>
+    </row>
+    <row r="33" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D33" s="39"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="41"/>
+    </row>
+    <row r="34" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D34" s="39"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="41"/>
+    </row>
+    <row r="35" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D35" s="39"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="41"/>
+    </row>
+    <row r="36" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D36" s="39"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="41"/>
+    </row>
+    <row r="37" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D37" s="39"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="41"/>
+    </row>
+    <row r="38" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D38" s="39"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="41"/>
+    </row>
+    <row r="39" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D39" s="39"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="41"/>
+    </row>
+    <row r="40" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D40" s="39"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="41"/>
+    </row>
+    <row r="41" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D41" s="39"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="41"/>
+    </row>
+    <row r="42" spans="4:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="42"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="44"/>
+    </row>
+    <row r="43" spans="4:20" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="4:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N44" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="O44" s="46"/>
+      <c r="P44" s="46"/>
+      <c r="Q44" s="46"/>
+      <c r="R44" s="46"/>
+      <c r="S44" s="46"/>
+      <c r="T44" s="47"/>
+    </row>
+    <row r="45" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="N45" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="11"/>
+    </row>
+    <row r="46" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="N46" s="12"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="13"/>
+      <c r="S46" s="13"/>
+      <c r="T46" s="14"/>
+    </row>
+    <row r="47" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="N47" s="12"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="13"/>
+      <c r="S47" s="13"/>
+      <c r="T47" s="14"/>
+    </row>
+    <row r="48" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="N48" s="12"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13"/>
+      <c r="R48" s="13"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="14"/>
+    </row>
+    <row r="49" spans="14:20" x14ac:dyDescent="0.2">
+      <c r="N49" s="12"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
+      <c r="R49" s="13"/>
+      <c r="S49" s="13"/>
+      <c r="T49" s="14"/>
+    </row>
+    <row r="50" spans="14:20" x14ac:dyDescent="0.2">
+      <c r="N50" s="12"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="13"/>
+      <c r="R50" s="13"/>
+      <c r="S50" s="13"/>
+      <c r="T50" s="14"/>
+    </row>
+    <row r="51" spans="14:20" x14ac:dyDescent="0.2">
+      <c r="N51" s="12"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="13"/>
+      <c r="R51" s="13"/>
+      <c r="S51" s="13"/>
+      <c r="T51" s="14"/>
+    </row>
+    <row r="52" spans="14:20" x14ac:dyDescent="0.2">
+      <c r="N52" s="12"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="13"/>
+      <c r="R52" s="13"/>
+      <c r="S52" s="13"/>
+      <c r="T52" s="14"/>
+    </row>
+    <row r="53" spans="14:20" x14ac:dyDescent="0.2">
+      <c r="N53" s="12"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="13"/>
+      <c r="R53" s="13"/>
+      <c r="S53" s="13"/>
+      <c r="T53" s="14"/>
+    </row>
+    <row r="54" spans="14:20" x14ac:dyDescent="0.2">
+      <c r="N54" s="12"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="13"/>
+      <c r="R54" s="13"/>
+      <c r="S54" s="13"/>
+      <c r="T54" s="14"/>
+    </row>
+    <row r="55" spans="14:20" x14ac:dyDescent="0.2">
+      <c r="N55" s="12"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13"/>
+      <c r="R55" s="13"/>
+      <c r="S55" s="13"/>
+      <c r="T55" s="14"/>
+    </row>
+    <row r="56" spans="14:20" x14ac:dyDescent="0.2">
+      <c r="N56" s="12"/>
+      <c r="O56" s="13"/>
+      <c r="P56" s="13"/>
+      <c r="Q56" s="13"/>
+      <c r="R56" s="13"/>
+      <c r="S56" s="13"/>
+      <c r="T56" s="14"/>
+    </row>
+    <row r="57" spans="14:20" x14ac:dyDescent="0.2">
+      <c r="N57" s="12"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="13"/>
+      <c r="R57" s="13"/>
+      <c r="S57" s="13"/>
+      <c r="T57" s="14"/>
+    </row>
+    <row r="58" spans="14:20" x14ac:dyDescent="0.2">
+      <c r="N58" s="12"/>
+      <c r="O58" s="13"/>
+      <c r="P58" s="13"/>
+      <c r="Q58" s="13"/>
+      <c r="R58" s="13"/>
+      <c r="S58" s="13"/>
+      <c r="T58" s="14"/>
+    </row>
+    <row r="59" spans="14:20" x14ac:dyDescent="0.2">
+      <c r="N59" s="12"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="13"/>
+      <c r="Q59" s="13"/>
+      <c r="R59" s="13"/>
+      <c r="S59" s="13"/>
+      <c r="T59" s="14"/>
+    </row>
+    <row r="60" spans="14:20" x14ac:dyDescent="0.2">
+      <c r="N60" s="12"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="13"/>
+      <c r="Q60" s="13"/>
+      <c r="R60" s="13"/>
+      <c r="S60" s="13"/>
+      <c r="T60" s="14"/>
+    </row>
+    <row r="61" spans="14:20" x14ac:dyDescent="0.2">
+      <c r="N61" s="12"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="13"/>
+      <c r="Q61" s="13"/>
+      <c r="R61" s="13"/>
+      <c r="S61" s="13"/>
+      <c r="T61" s="14"/>
+    </row>
+    <row r="62" spans="14:20" x14ac:dyDescent="0.2">
+      <c r="N62" s="12"/>
+      <c r="O62" s="13"/>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="13"/>
+      <c r="R62" s="13"/>
+      <c r="S62" s="13"/>
+      <c r="T62" s="14"/>
+    </row>
+    <row r="63" spans="14:20" x14ac:dyDescent="0.2">
+      <c r="N63" s="12"/>
+      <c r="O63" s="13"/>
+      <c r="P63" s="13"/>
+      <c r="Q63" s="13"/>
+      <c r="R63" s="13"/>
+      <c r="S63" s="13"/>
+      <c r="T63" s="14"/>
+    </row>
+    <row r="64" spans="14:20" x14ac:dyDescent="0.2">
+      <c r="N64" s="12"/>
+      <c r="O64" s="13"/>
+      <c r="P64" s="13"/>
+      <c r="Q64" s="13"/>
+      <c r="R64" s="13"/>
+      <c r="S64" s="13"/>
+      <c r="T64" s="14"/>
+    </row>
+    <row r="65" spans="14:20" x14ac:dyDescent="0.2">
+      <c r="N65" s="12"/>
+      <c r="O65" s="13"/>
+      <c r="P65" s="13"/>
+      <c r="Q65" s="13"/>
+      <c r="R65" s="13"/>
+      <c r="S65" s="13"/>
+      <c r="T65" s="14"/>
+    </row>
+    <row r="66" spans="14:20" x14ac:dyDescent="0.2">
+      <c r="N66" s="12"/>
+      <c r="O66" s="13"/>
+      <c r="P66" s="13"/>
+      <c r="Q66" s="13"/>
+      <c r="R66" s="13"/>
+      <c r="S66" s="13"/>
+      <c r="T66" s="14"/>
+    </row>
+    <row r="67" spans="14:20" x14ac:dyDescent="0.2">
+      <c r="N67" s="12"/>
+      <c r="O67" s="13"/>
+      <c r="P67" s="13"/>
+      <c r="Q67" s="13"/>
+      <c r="R67" s="13"/>
+      <c r="S67" s="13"/>
+      <c r="T67" s="14"/>
+    </row>
+    <row r="68" spans="14:20" x14ac:dyDescent="0.2">
+      <c r="N68" s="12"/>
+      <c r="O68" s="13"/>
+      <c r="P68" s="13"/>
+      <c r="Q68" s="13"/>
+      <c r="R68" s="13"/>
+      <c r="S68" s="13"/>
+      <c r="T68" s="14"/>
+    </row>
+    <row r="69" spans="14:20" x14ac:dyDescent="0.2">
+      <c r="N69" s="12"/>
+      <c r="O69" s="13"/>
+      <c r="P69" s="13"/>
+      <c r="Q69" s="13"/>
+      <c r="R69" s="13"/>
+      <c r="S69" s="13"/>
+      <c r="T69" s="14"/>
+    </row>
+    <row r="70" spans="14:20" x14ac:dyDescent="0.2">
+      <c r="N70" s="12"/>
+      <c r="O70" s="13"/>
+      <c r="P70" s="13"/>
+      <c r="Q70" s="13"/>
+      <c r="R70" s="13"/>
+      <c r="S70" s="13"/>
+      <c r="T70" s="14"/>
+    </row>
+    <row r="71" spans="14:20" x14ac:dyDescent="0.2">
+      <c r="N71" s="12"/>
+      <c r="O71" s="13"/>
+      <c r="P71" s="13"/>
+      <c r="Q71" s="13"/>
+      <c r="R71" s="13"/>
+      <c r="S71" s="13"/>
+      <c r="T71" s="14"/>
+    </row>
+    <row r="72" spans="14:20" x14ac:dyDescent="0.2">
+      <c r="N72" s="12"/>
+      <c r="O72" s="13"/>
+      <c r="P72" s="13"/>
+      <c r="Q72" s="13"/>
+      <c r="R72" s="13"/>
+      <c r="S72" s="13"/>
+      <c r="T72" s="14"/>
+    </row>
+    <row r="73" spans="14:20" x14ac:dyDescent="0.2">
+      <c r="N73" s="12"/>
+      <c r="O73" s="13"/>
+      <c r="P73" s="13"/>
+      <c r="Q73" s="13"/>
+      <c r="R73" s="13"/>
+      <c r="S73" s="13"/>
+      <c r="T73" s="14"/>
+    </row>
+    <row r="74" spans="14:20" x14ac:dyDescent="0.2">
+      <c r="N74" s="12"/>
+      <c r="O74" s="13"/>
+      <c r="P74" s="13"/>
+      <c r="Q74" s="13"/>
+      <c r="R74" s="13"/>
+      <c r="S74" s="13"/>
+      <c r="T74" s="14"/>
+    </row>
+    <row r="75" spans="14:20" x14ac:dyDescent="0.2">
+      <c r="N75" s="12"/>
+      <c r="O75" s="13"/>
+      <c r="P75" s="13"/>
+      <c r="Q75" s="13"/>
+      <c r="R75" s="13"/>
+      <c r="S75" s="13"/>
+      <c r="T75" s="14"/>
+    </row>
+    <row r="76" spans="14:20" x14ac:dyDescent="0.2">
+      <c r="N76" s="12"/>
+      <c r="O76" s="13"/>
+      <c r="P76" s="13"/>
+      <c r="Q76" s="13"/>
+      <c r="R76" s="13"/>
+      <c r="S76" s="13"/>
+      <c r="T76" s="14"/>
+    </row>
+    <row r="77" spans="14:20" x14ac:dyDescent="0.2">
+      <c r="N77" s="12"/>
+      <c r="O77" s="13"/>
+      <c r="P77" s="13"/>
+      <c r="Q77" s="13"/>
+      <c r="R77" s="13"/>
+      <c r="S77" s="13"/>
+      <c r="T77" s="14"/>
+    </row>
+    <row r="78" spans="14:20" x14ac:dyDescent="0.2">
+      <c r="N78" s="12"/>
+      <c r="O78" s="13"/>
+      <c r="P78" s="13"/>
+      <c r="Q78" s="13"/>
+      <c r="R78" s="13"/>
+      <c r="S78" s="13"/>
+      <c r="T78" s="14"/>
+    </row>
+    <row r="79" spans="14:20" x14ac:dyDescent="0.2">
+      <c r="N79" s="12"/>
+      <c r="O79" s="13"/>
+      <c r="P79" s="13"/>
+      <c r="Q79" s="13"/>
+      <c r="R79" s="13"/>
+      <c r="S79" s="13"/>
+      <c r="T79" s="14"/>
+    </row>
+    <row r="80" spans="14:20" x14ac:dyDescent="0.2">
+      <c r="N80" s="12"/>
+      <c r="O80" s="13"/>
+      <c r="P80" s="13"/>
+      <c r="Q80" s="13"/>
+      <c r="R80" s="13"/>
+      <c r="S80" s="13"/>
+      <c r="T80" s="14"/>
+    </row>
+    <row r="81" spans="14:20" x14ac:dyDescent="0.2">
+      <c r="N81" s="12"/>
+      <c r="O81" s="13"/>
+      <c r="P81" s="13"/>
+      <c r="Q81" s="13"/>
+      <c r="R81" s="13"/>
+      <c r="S81" s="13"/>
+      <c r="T81" s="14"/>
+    </row>
+    <row r="82" spans="14:20" x14ac:dyDescent="0.2">
+      <c r="N82" s="12"/>
+      <c r="O82" s="13"/>
+      <c r="P82" s="13"/>
+      <c r="Q82" s="13"/>
+      <c r="R82" s="13"/>
+      <c r="S82" s="13"/>
+      <c r="T82" s="14"/>
+    </row>
+    <row r="83" spans="14:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N83" s="15"/>
+      <c r="O83" s="16"/>
+      <c r="P83" s="16"/>
+      <c r="Q83" s="16"/>
+      <c r="R83" s="16"/>
+      <c r="S83" s="16"/>
+      <c r="T83" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="N45:T83"/>
+    <mergeCell ref="B2:N5"/>
+    <mergeCell ref="C7:N20"/>
+    <mergeCell ref="D23:L42"/>
+    <mergeCell ref="D22:L22"/>
+    <mergeCell ref="N44:T44"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7378FA07-1D1B-4490-B946-07A7C2E9F0DF}">
+  <dimension ref="A1:V53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49:H50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="117.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="61.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+    </row>
+    <row r="3" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M4" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="50"/>
+    </row>
+    <row r="5" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="53"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -2055,25 +3631,27 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B8" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+    </row>
+    <row r="9" spans="1:22" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -2081,25 +3659,27 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B11" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+    </row>
+    <row r="12" spans="1:22" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>4</v>
       </c>
@@ -2107,25 +3687,27 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B14" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+    </row>
+    <row r="15" spans="1:22" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>5</v>
       </c>
@@ -2133,25 +3715,27 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+    </row>
+    <row r="18" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>6</v>
       </c>
@@ -2159,25 +3743,27 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+    </row>
+    <row r="21" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>7</v>
       </c>
@@ -2185,25 +3771,27 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+    </row>
+    <row r="24" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>8</v>
       </c>
@@ -2211,25 +3799,27 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+    </row>
+    <row r="27" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>9</v>
       </c>
@@ -2237,25 +3827,27 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-    </row>
-    <row r="30" spans="1:8" ht="145.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+    </row>
+    <row r="30" spans="1:8" ht="119" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>10</v>
       </c>
@@ -2263,25 +3855,27 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+    </row>
+    <row r="33" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>11</v>
       </c>
@@ -2289,25 +3883,27 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B35" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+    </row>
+    <row r="36" spans="1:8" ht="98" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="56"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>12</v>
       </c>
@@ -2315,25 +3911,27 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
+    </row>
+    <row r="39" spans="1:8" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="57"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>13</v>
       </c>
@@ -2341,104 +3939,107 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="12"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-    </row>
-    <row r="49" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B42" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B43" s="59"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B44" s="59"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B45" s="59"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B46" s="59"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="59"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="59"/>
+    </row>
+    <row r="48" spans="1:8" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+    </row>
+    <row r="49" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>14</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="54"/>
+    </row>
+    <row r="50" spans="1:8" ht="198" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="54"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="54"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B52" s="1" t="s">
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B53" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B53" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="M4:V5"/>
     <mergeCell ref="B49:H50"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B35:H36"/>
@@ -2459,61 +4060,62 @@
     <hyperlink ref="B53" r:id="rId1" xr:uid="{2792DCEB-8A87-4C8E-BB35-8368B037BB8F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6DC707-41BF-47EE-A929-9C440E5E8963}">
   <dimension ref="C3:R64"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="1" max="2" width="8.83203125" style="1"/>
     <col min="3" max="3" width="19.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="1"/>
-    <col min="12" max="12" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" style="1"/>
+    <col min="12" max="12" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C3" s="15" t="s">
+    <row r="3" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C3" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="F3" s="16" t="s">
+      <c r="D3" s="61"/>
+      <c r="F3" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="L3" s="15" t="s">
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="L3" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-    </row>
-    <row r="4" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+    </row>
+    <row r="4" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
@@ -2557,7 +4159,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
@@ -2601,7 +4203,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
@@ -2645,7 +4247,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
@@ -2689,7 +4291,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
@@ -2733,7 +4335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
@@ -2777,7 +4379,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
@@ -2821,7 +4423,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:18" x14ac:dyDescent="0.2">
       <c r="L11" s="2">
         <v>5</v>
       </c>
@@ -2844,7 +4446,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:18" x14ac:dyDescent="0.2">
       <c r="L12" s="2">
         <v>5</v>
       </c>
@@ -2867,14 +4469,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C13" s="18" t="s">
+    <row r="13" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C13" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
       <c r="L13" s="2">
         <v>6</v>
       </c>
@@ -2897,7 +4499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C14" s="4" t="s">
         <v>5</v>
       </c>
@@ -2935,7 +4537,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
@@ -2973,7 +4575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C16" s="2" t="s">
         <v>31</v>
       </c>
@@ -3011,7 +4613,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="2" t="s">
         <v>32</v>
       </c>
@@ -3049,7 +4651,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="2" t="s">
         <v>33</v>
       </c>
@@ -3087,7 +4689,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="2" t="s">
         <v>34</v>
       </c>
@@ -3125,7 +4727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="2" t="s">
         <v>35</v>
       </c>
@@ -3163,7 +4765,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="2" t="s">
         <v>36</v>
       </c>
@@ -3201,7 +4803,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="2" t="s">
         <v>37</v>
       </c>
@@ -3239,7 +4841,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="2" t="s">
         <v>38</v>
       </c>
@@ -3277,7 +4879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="2" t="s">
         <v>39</v>
       </c>
@@ -3315,7 +4917,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="2" t="s">
         <v>40</v>
       </c>
@@ -3353,7 +4955,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="2" t="s">
         <v>41</v>
       </c>
@@ -3391,7 +4993,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="2" t="s">
         <v>42</v>
       </c>
@@ -3429,7 +5031,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="2" t="s">
         <v>43</v>
       </c>
@@ -3467,7 +5069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="2" t="s">
         <v>44</v>
       </c>
@@ -3505,7 +5107,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="2" t="s">
         <v>45</v>
       </c>
@@ -3543,7 +5145,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="2" t="s">
         <v>46</v>
       </c>
@@ -3581,7 +5183,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="2" t="s">
         <v>47</v>
       </c>
@@ -3619,7 +5221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C33" s="2" t="s">
         <v>48</v>
       </c>
@@ -3657,7 +5259,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C34" s="2" t="s">
         <v>49</v>
       </c>
@@ -3695,7 +5297,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:18" x14ac:dyDescent="0.2">
       <c r="L35" s="2">
         <v>21</v>
       </c>
@@ -3718,7 +5320,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:18" x14ac:dyDescent="0.2">
       <c r="L36" s="2">
         <v>22</v>
       </c>
@@ -3741,7 +5343,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:18" x14ac:dyDescent="0.2">
       <c r="L37" s="2">
         <v>23</v>
       </c>
@@ -3764,7 +5366,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:18" x14ac:dyDescent="0.2">
       <c r="L38" s="2">
         <v>24</v>
       </c>
@@ -3787,7 +5389,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:18" x14ac:dyDescent="0.2">
       <c r="L39" s="2">
         <v>25</v>
       </c>
@@ -3810,7 +5412,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:18" x14ac:dyDescent="0.2">
       <c r="L40" s="2">
         <v>25</v>
       </c>
@@ -3833,7 +5435,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:18" x14ac:dyDescent="0.2">
       <c r="L41" s="2">
         <v>25</v>
       </c>
@@ -3856,7 +5458,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:18" x14ac:dyDescent="0.2">
       <c r="L42" s="2">
         <v>26</v>
       </c>
@@ -3879,7 +5481,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:18" x14ac:dyDescent="0.2">
       <c r="L43" s="2">
         <v>27</v>
       </c>
@@ -3902,7 +5504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:18" x14ac:dyDescent="0.2">
       <c r="L44" s="2">
         <v>28</v>
       </c>
@@ -3925,7 +5527,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:18" x14ac:dyDescent="0.2">
       <c r="L45" s="2">
         <v>28</v>
       </c>
@@ -3948,7 +5550,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:18" x14ac:dyDescent="0.2">
       <c r="L46" s="2">
         <v>29</v>
       </c>
@@ -3971,7 +5573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:18" x14ac:dyDescent="0.2">
       <c r="L47" s="2">
         <v>30</v>
       </c>
@@ -3994,7 +5596,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:18" x14ac:dyDescent="0.2">
       <c r="L48" s="2">
         <v>31</v>
       </c>
@@ -4017,7 +5619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="12:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L49" s="2">
         <v>31</v>
       </c>
@@ -4040,7 +5642,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="12:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L50" s="2">
         <v>31</v>
       </c>
@@ -4063,7 +5665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="12:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L51" s="2">
         <v>32</v>
       </c>
@@ -4086,7 +5688,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="12:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L52" s="2">
         <v>33</v>
       </c>
@@ -4109,7 +5711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="12:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L53" s="2">
         <v>34</v>
       </c>
@@ -4132,7 +5734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="12:18" x14ac:dyDescent="0.3">
+    <row r="54" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L54" s="2">
         <v>35</v>
       </c>
@@ -4155,9 +5757,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="12:18" ht="32.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="12:18" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="12:18" ht="121.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="12:18" ht="32.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="12:18" ht="37.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="12:18" ht="121.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C3:D3"/>
